--- a/CE/summary_prime.xlsx
+++ b/CE/summary_prime.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
-  <si>
-    <t>2021-12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>2022-01</t>
   </si>
@@ -434,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,31 +439,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -474,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>9256949.47432</v>
+        <v>4836606.10532</v>
       </c>
       <c r="D3">
-        <v>31955684.37387977</v>
+        <v>17273160.76053824</v>
       </c>
       <c r="E3">
-        <v>8473306.584275791</v>
+        <v>4872388.43846</v>
       </c>
       <c r="F3">
-        <v>7493</v>
+        <v>4087</v>
       </c>
       <c r="G3">
-        <v>39511</v>
+        <v>24379</v>
       </c>
       <c r="H3">
-        <v>11419</v>
+        <v>7319</v>
       </c>
       <c r="I3">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -503,28 +500,28 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2138209.4058</v>
+        <v>905974.638</v>
       </c>
       <c r="D4">
-        <v>7479789.61738</v>
+        <v>3964398.29726</v>
       </c>
       <c r="E4">
-        <v>887492.508</v>
+        <v>582970.1756</v>
       </c>
       <c r="F4">
-        <v>1451</v>
+        <v>785</v>
       </c>
       <c r="G4">
-        <v>10231</v>
+        <v>7058</v>
       </c>
       <c r="H4">
-        <v>1243</v>
+        <v>859</v>
       </c>
       <c r="I4">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -532,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1536357.7852</v>
+        <v>837821.326</v>
       </c>
       <c r="D5">
-        <v>5630072.0975</v>
+        <v>3065415.20238</v>
       </c>
       <c r="E5">
-        <v>1366788.0235</v>
+        <v>886163.456</v>
       </c>
       <c r="F5">
-        <v>1020</v>
+        <v>662</v>
       </c>
       <c r="G5">
-        <v>6593</v>
+        <v>3278</v>
       </c>
       <c r="H5">
-        <v>2187</v>
+        <v>1494</v>
       </c>
       <c r="I5">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -561,28 +558,28 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2342069.29287467</v>
+        <v>1009328.0795</v>
       </c>
       <c r="D6">
-        <v>6812109.121399062</v>
+        <v>3120726.180818</v>
       </c>
       <c r="E6">
-        <v>815000.6566400001</v>
+        <v>532776.103836</v>
       </c>
       <c r="F6">
-        <v>1247</v>
+        <v>620</v>
       </c>
       <c r="G6">
-        <v>5614</v>
+        <v>3282</v>
       </c>
       <c r="H6">
-        <v>836</v>
+        <v>608</v>
       </c>
       <c r="I6">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -590,28 +587,28 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1933894.3141244</v>
+        <v>1055477.289408</v>
       </c>
       <c r="D7">
-        <v>4284597.9650276</v>
+        <v>2503154.58618</v>
       </c>
       <c r="E7">
-        <v>537322.1364</v>
+        <v>341021.81296</v>
       </c>
       <c r="F7">
-        <v>979</v>
+        <v>583</v>
       </c>
       <c r="G7">
-        <v>3725</v>
+        <v>2485</v>
       </c>
       <c r="H7">
-        <v>610</v>
+        <v>437</v>
       </c>
       <c r="I7">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -619,28 +616,28 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2359306.508</v>
+        <v>1395034</v>
       </c>
       <c r="D8">
-        <v>7880237.1206</v>
+        <v>3931567.49224</v>
       </c>
       <c r="E8">
-        <v>1042997.2995</v>
+        <v>576570.365</v>
       </c>
       <c r="F8">
-        <v>1533</v>
+        <v>1010</v>
       </c>
       <c r="G8">
-        <v>7626</v>
+        <v>3757</v>
       </c>
       <c r="H8">
-        <v>1919</v>
+        <v>1030</v>
       </c>
       <c r="I8">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -648,230 +645,27 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>185289.103</v>
+        <v>74535.79400000001</v>
       </c>
       <c r="D9">
-        <v>1443108.1856</v>
+        <v>570682.057</v>
       </c>
       <c r="E9">
-        <v>160627.078</v>
+        <v>107374.234</v>
       </c>
       <c r="F9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>580</v>
+        <v>302</v>
       </c>
       <c r="H9">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>4836606.10532</v>
-      </c>
-      <c r="D10">
-        <v>17273160.76053824</v>
-      </c>
-      <c r="E10">
-        <v>4872388.43846</v>
-      </c>
-      <c r="F10">
-        <v>4087</v>
-      </c>
-      <c r="G10">
-        <v>24379</v>
-      </c>
-      <c r="H10">
-        <v>7319</v>
-      </c>
-      <c r="I10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>905974.638</v>
-      </c>
-      <c r="D11">
-        <v>3964398.29726</v>
-      </c>
-      <c r="E11">
-        <v>582970.1756</v>
-      </c>
-      <c r="F11">
-        <v>785</v>
-      </c>
-      <c r="G11">
-        <v>7058</v>
-      </c>
-      <c r="H11">
-        <v>859</v>
-      </c>
-      <c r="I11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>837821.326</v>
-      </c>
-      <c r="D12">
-        <v>3065415.20238</v>
-      </c>
-      <c r="E12">
-        <v>886163.456</v>
-      </c>
-      <c r="F12">
-        <v>662</v>
-      </c>
-      <c r="G12">
-        <v>3278</v>
-      </c>
-      <c r="H12">
-        <v>1494</v>
-      </c>
-      <c r="I12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>1009328.0795</v>
-      </c>
-      <c r="D13">
-        <v>3120726.180818</v>
-      </c>
-      <c r="E13">
-        <v>532776.103836</v>
-      </c>
-      <c r="F13">
-        <v>620</v>
-      </c>
-      <c r="G13">
-        <v>3282</v>
-      </c>
-      <c r="H13">
-        <v>608</v>
-      </c>
-      <c r="I13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>1055477.289408</v>
-      </c>
-      <c r="D14">
-        <v>2503154.58618</v>
-      </c>
-      <c r="E14">
-        <v>341021.81296</v>
-      </c>
-      <c r="F14">
-        <v>583</v>
-      </c>
-      <c r="G14">
-        <v>2485</v>
-      </c>
-      <c r="H14">
-        <v>437</v>
-      </c>
-      <c r="I14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>1395034</v>
-      </c>
-      <c r="D15">
-        <v>3931567.49224</v>
-      </c>
-      <c r="E15">
-        <v>576570.365</v>
-      </c>
-      <c r="F15">
-        <v>1010</v>
-      </c>
-      <c r="G15">
-        <v>3757</v>
-      </c>
-      <c r="H15">
-        <v>1030</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>74535.79400000001</v>
-      </c>
-      <c r="D16">
-        <v>570682.057</v>
-      </c>
-      <c r="E16">
-        <v>107374.234</v>
-      </c>
-      <c r="F16">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>302</v>
-      </c>
-      <c r="H16">
-        <v>52</v>
-      </c>
-      <c r="I16">
         <v>16</v>
       </c>
     </row>

--- a/CE/summary_prime.xlsx
+++ b/CE/summary_prime.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t>2022-01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
   <si>
     <t>ЦФО</t>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,31 +442,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -471,28 +474,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4836606.10532</v>
+        <v>43720505.534575</v>
       </c>
       <c r="D3">
-        <v>17273160.76053824</v>
+        <v>147063943.328721</v>
       </c>
       <c r="E3">
-        <v>4872388.43846</v>
+        <v>46768864.94118</v>
       </c>
       <c r="F3">
-        <v>4087</v>
+        <v>33025</v>
       </c>
       <c r="G3">
-        <v>24379</v>
+        <v>216777</v>
       </c>
       <c r="H3">
-        <v>7319</v>
-      </c>
-      <c r="I3">
-        <v>16</v>
+        <v>79280</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -500,28 +500,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>905974.638</v>
+        <v>10001618.319848</v>
       </c>
       <c r="D4">
-        <v>3964398.29726</v>
+        <v>29229410.623047</v>
       </c>
       <c r="E4">
-        <v>582970.1756</v>
+        <v>7228818.445105</v>
       </c>
       <c r="F4">
-        <v>785</v>
+        <v>7231</v>
       </c>
       <c r="G4">
-        <v>7058</v>
+        <v>50985</v>
       </c>
       <c r="H4">
-        <v>859</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
+        <v>13015</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -529,28 +526,25 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>837821.326</v>
+        <v>7956833.6526925</v>
       </c>
       <c r="D5">
-        <v>3065415.20238</v>
+        <v>20128105.259064</v>
       </c>
       <c r="E5">
-        <v>886163.456</v>
+        <v>5102227.5081</v>
       </c>
       <c r="F5">
-        <v>662</v>
+        <v>5905</v>
       </c>
       <c r="G5">
-        <v>3278</v>
+        <v>24472</v>
       </c>
       <c r="H5">
-        <v>1494</v>
-      </c>
-      <c r="I5">
-        <v>16</v>
+        <v>8999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -558,28 +552,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1009328.0795</v>
+        <v>10415669.1585945</v>
       </c>
       <c r="D6">
-        <v>3120726.180818</v>
+        <v>21825705.04681</v>
       </c>
       <c r="E6">
-        <v>532776.103836</v>
+        <v>4731935.630807946</v>
       </c>
       <c r="F6">
-        <v>620</v>
+        <v>6686</v>
       </c>
       <c r="G6">
-        <v>3282</v>
+        <v>24660</v>
       </c>
       <c r="H6">
-        <v>608</v>
-      </c>
-      <c r="I6">
-        <v>16</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -587,28 +578,25 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1055477.289408</v>
+        <v>10374758.93424</v>
       </c>
       <c r="D7">
-        <v>2503154.58618</v>
+        <v>20885665.97785955</v>
       </c>
       <c r="E7">
-        <v>341021.81296</v>
+        <v>5003161.576682</v>
       </c>
       <c r="F7">
-        <v>583</v>
+        <v>6100</v>
       </c>
       <c r="G7">
-        <v>2485</v>
+        <v>21417</v>
       </c>
       <c r="H7">
-        <v>437</v>
-      </c>
-      <c r="I7">
-        <v>16</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -616,28 +604,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1395034</v>
+        <v>11897577.18929</v>
       </c>
       <c r="D8">
-        <v>3931567.49224</v>
+        <v>27276874.533834</v>
       </c>
       <c r="E8">
-        <v>576570.365</v>
+        <v>4038186.97886</v>
       </c>
       <c r="F8">
-        <v>1010</v>
+        <v>5871</v>
       </c>
       <c r="G8">
-        <v>3757</v>
+        <v>24109</v>
       </c>
       <c r="H8">
-        <v>1030</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
+        <v>7523</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -645,28 +630,207 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>652923.5649999999</v>
+      </c>
+      <c r="D9">
+        <v>6201747.375132</v>
+      </c>
+      <c r="E9">
+        <v>443803.07775</v>
+      </c>
+      <c r="F9">
+        <v>252</v>
+      </c>
+      <c r="G9">
+        <v>2665</v>
+      </c>
+      <c r="H9">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>38736977.4369</v>
+      </c>
+      <c r="D10">
+        <v>130750385.7521188</v>
+      </c>
+      <c r="E10">
+        <v>38645225.9069208</v>
+      </c>
+      <c r="F10">
+        <v>31247</v>
+      </c>
+      <c r="G10">
+        <v>175431</v>
+      </c>
+      <c r="H10">
+        <v>53447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>8056159.7434</v>
+      </c>
+      <c r="D11">
+        <v>31443578.2393</v>
+      </c>
+      <c r="E11">
+        <v>4521981.4186</v>
+      </c>
+      <c r="F11">
+        <v>5577</v>
+      </c>
+      <c r="G11">
+        <v>51238</v>
+      </c>
+      <c r="H11">
+        <v>6636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>7581646.42518</v>
+      </c>
+      <c r="D12">
+        <v>22467276.0854</v>
+      </c>
+      <c r="E12">
+        <v>6268009.0537</v>
+      </c>
+      <c r="F12">
+        <v>5509</v>
+      </c>
+      <c r="G12">
+        <v>28632</v>
+      </c>
+      <c r="H12">
+        <v>11051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>9793166.56608299</v>
+      </c>
+      <c r="D13">
+        <v>28004620.1658527</v>
+      </c>
+      <c r="E13">
+        <v>4701648.14140324</v>
+      </c>
+      <c r="F13">
+        <v>5391</v>
+      </c>
+      <c r="G13">
+        <v>24064</v>
+      </c>
+      <c r="H13">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>8720621.4938024</v>
+      </c>
+      <c r="D14">
+        <v>17661455.5595476</v>
+      </c>
+      <c r="E14">
+        <v>2487241.7708</v>
+      </c>
+      <c r="F14">
+        <v>4758</v>
+      </c>
+      <c r="G14">
+        <v>16757</v>
+      </c>
+      <c r="H14">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>74535.79400000001</v>
-      </c>
-      <c r="D9">
-        <v>570682.057</v>
-      </c>
-      <c r="E9">
-        <v>107374.234</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>302</v>
-      </c>
-      <c r="H9">
-        <v>52</v>
-      </c>
-      <c r="I9">
-        <v>16</v>
+      <c r="C15">
+        <v>10764637.30261</v>
+      </c>
+      <c r="D15">
+        <v>31318065.95112</v>
+      </c>
+      <c r="E15">
+        <v>4170009.2235</v>
+      </c>
+      <c r="F15">
+        <v>6734</v>
+      </c>
+      <c r="G15">
+        <v>32610</v>
+      </c>
+      <c r="H15">
+        <v>8359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>719272.67</v>
+      </c>
+      <c r="D16">
+        <v>5250985.912</v>
+      </c>
+      <c r="E16">
+        <v>657016.924</v>
+      </c>
+      <c r="F16">
+        <v>245</v>
+      </c>
+      <c r="G16">
+        <v>2592</v>
+      </c>
+      <c r="H16">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
